--- a/excel/penglings-data-excel.xlsx
+++ b/excel/penglings-data-excel.xlsx
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,12 +107,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -220,18 +214,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/excel/penglings-data-excel.xlsx
+++ b/excel/penglings-data-excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54a1c0f8b736c45c/Documents/GitHub/a2-DataVis-5ways-has/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56577E44-C387-4218-8BE3-F5EFDBB13923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{56577E44-C387-4218-8BE3-F5EFDBB13923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CA7C9E1-424B-4BE0-8246-C634671A8133}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F5B6DA40-3290-4D86-B608-F89F660EC5D4}"/>
   </bookViews>
@@ -3550,7 +3550,7 @@
         <c:axId val="1763837583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="245"/>
+          <c:max val="235"/>
           <c:min val="170"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3566,6 +3566,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3667,7 +3681,8 @@
         <c:axId val="1763838063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="2000"/>
+          <c:max val="6500"/>
+          <c:min val="2500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3682,6 +3697,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3777,6 +3806,8 @@
         <c:crossAx val="1763837583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="500"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3789,7 +3820,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3860,6 +3891,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4479,6 +4511,52 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85916</cdr:x>
+      <cdr:y>0.37782</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.59094</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE95467-99F9-6C0C-7AF9-B2FB5B30DB84}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5738630" y="1621097"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>species</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Smith, Holly" id="{C68CF8CA-D324-4FBA-9BFF-25BD4BC1DD39}" userId="S::hasmith@wpi.edu::91c539b3-49e2-4f29-8ff4-72694f8dada1" providerId="AD"/>
@@ -4814,8 +4892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E09A972-4DA8-423C-B9EC-40477899A45F}">
   <dimension ref="A2:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="99" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
